--- a/model/src/rag_zero_shot_prompting_easy_Llama3B_results.xlsx
+++ b/model/src/rag_zero_shot_prompting_easy_Llama3B_results.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3175109D-798D-4DD0-847F-1ED68C1B49BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB95B52-3272-4F04-9741-DEE5F8D51B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
   <si>
     <t>question</t>
   </si>
@@ -293,42 +306,6 @@
   </si>
   <si>
     <t>What are the course units of the Spring semesters for the postgraduate program in risk analysis and management?</t>
-  </si>
-  <si>
-    <t>The course units for the Spring semester of the postgraduate program in Risk Analysis and Management are:
-* Banking and Insurance Regulation and Supervision (Mandatory, 7.5 ECTS)
-* Risk Management (Mandatory, 3.5 ECTS)
-* Financial Derivatives and Risk Management (Mandatory, 7.5 ECTS)
-* Market and Liquidity Risk Management (Mandatory, 4 ECTS)
-* Analysis of Discrete Data (Elective, 4 ECTS)
-* Analysis of Variance (Elective, 4 ECTS)
-* Architectures for Information Systems (Elective, 3.5 ECTS)
-* Big Data Analytics (Elective, 7.5 ECTS)
-* Blockchain (Elective, 4 ECTS)
-* Blockchain &amp; CryptoAssets (Elective, 4 ECTS)
-* Business Impact of Digital Projects (Elective, 3.5 ECTS)
-* Business Intelligence II (Elective, 7.5 ECTS)
-* Computational Statistics II (Elective, 6 ECTS)
-* Customer Relationship Management Systems (Elective, 7.5 ECTS)
-* Cybersecurity (Elective, 7.5 ECTS)
-* Data Mining II (Elective, 7.5 ECTS)
-* Data Visualization (Elective, 7.5 ECTS)
-* Data-driven decision making (Elective, 4 ECTS)
-* E-Business (Elective, 4 ECTS)
-* Econometrics Methods (Elective, 7.5 ECTS)
-* Emerging Technologies for Innovation (Elective, 3.5 ECTS)
-* Enterprise Cloud Mobility (Elective, 7.5 ECTS)
-* Financial Reporting (Elective, 6 ECTS)
-* Gestão do Conhecimento (Elective, 3.5 ECTS)
-* Industry 4.0 (Elective, 4 ECTS)
-* Information Project Management (Elective, 4 ECTS)
-* Innovation Management and Design Thinking (Elective, 7.5 ECTS)
-* Knowledge Management (Elective, 7.5 ECTS)
-* Leadership and People Management (Elective, 7.5 ECTS)
-* Process Mining Powered By Nokia (Elective, 7.5 ECTS)
-* Sampling Theory and Methods (Elective, 7.5 ECTS)
-* Smart and Sustainable Cities (Elective, 7.5 ECTS)
-Please note that this list only includes the course units for the Spring semester and does not include the course units for the other semesters. For a complete overview of the program, I recommend visiting the official course page.</t>
   </si>
   <si>
     <t>Document 1:
@@ -1113,21 +1090,6 @@
 Metadata: {'course_name': 'Postgraduate Program In Business Intelligence', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '8e619601-aa42-4c72-9c50-c2b40178f697', 'source': 'postgraduate-program-in-business-intelligence_Study plan.txt'}</t>
   </si>
   <si>
-    <t>What programming languages are taught in the Bachelor's in Data Science?</t>
-  </si>
-  <si>
-    <t>The programming languages taught in the Bachelor's in Data Science are Python and R. These languages are fundamental in the field of data science and are used extensively in data preprocessing, visualization, machine learning, and statistical inference. For more information, please visit the official course page for the Bachelor's in Data Science.</t>
-  </si>
-  <si>
-    <t>Document 1:
-Data Science bachelor What is the language of instruction of the course?
-The course is taught in English. Nowadays, being comfortable with the English language is a competitive advantage, which makes a difference in the global job market. NOVA IMS students have all the support to quickly adapt to the language and can always speak in Portuguese when they are unable to express themselves.
-Metadata: {'degree': 'bachelor', 'doc_type': 'main_info', 'course_name': 'Data Science', 'section': 'What is the language of instruction of the course?', 'id': 'fceef734-ee09-4571-b984-15a1216d9bc7'}
-Document 2:
-Data Science bachelor First Semester 2 nd year - Fall Semester Course Units Duration Type Contact Hours Total Workload ECTS Data preprocessing and visualization Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Databases Semester Mandatory TP - 64,5 | S - 3 | OT - 7,5 168 6 Machine Learning I Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Programming for Data Science Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Statistical Inference Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Show subtitles T – Theoretical Teaching; TP – Theoretical/ Practical Teaching; TC – Field Work; PL – Theoretical/ Practical Teaching; S – Seminar; OT – Tutor Group; ** – Course Unit available in both semesters; Semestre 2 - 1;Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
-Metadata: {'course_name': 'Data Science', 'degree': 'bachelor', 'doc_type': 'study_plan', 'id': 'c085af09-e2ca-4434-a7a5-65d923355fda', 'source': 'bachelor_data-science_studyplan_text.txt'}</t>
-  </si>
-  <si>
     <t>How does the Master in Information Management, with a specialization in Business Intelligence prepare students for the digital transformation of businesses?</t>
   </si>
   <si>
@@ -1500,12 +1462,60 @@
     <t xml:space="preserve">The Master Degree in Law and Financial Markets is a 4-semester program (120 ECTS) offered by NOVA School of Law, with classes held 2-3 times a week. It is designed for holders of a bachelor's degree (or equivalent) in Law, with a strong emphasis on providing specialized training in areas closely linked to financial markets and investments. The program includes courses on financial markets, risk management, and regulatory frameworks, aiming to equip students with the necessary skills to analyze and evaluate financial instruments, identify strategic interventions in capital markets, and develop a critical approach to solving complex problems. Throughout the program, students can participate in internships, networking events, and international experiences, fostering their professional development and connections within the financial sector. Applications for this program are open until February 28th, 2025.
 </t>
   </si>
+  <si>
+    <t>The course units for the Spring semester of the postgraduate program in Risk Analysis and Management are:
+* Banking and Insurance Regulation and Supervision (Mandatory, 7.5 ECTS)
+* Credit Risk Management (Mandatory, 3.5 ECTS)
+* Financial Derivatives and Risk Management (Mandatory, 7.5 ECTS)
+* Market and Liquidity Risk Management (Mandatory, 4 ECTS)
+* Analysis of Discrete Data (Elective, 4 ECTS)
+* Analysis of Variance (Elective, 4 ECTS)
+* Architectures for Information Systems (Elective, 3.5 ECTS)
+* Big Data Analytics (Elective, 7.5 ECTS)
+* Blockchain (Elective, 4 ECTS)
+* Blockchain &amp; CryptoAssets (Elective, 4 ECTS)
+* Business Impact of Digital Projects (Elective, 3.5 ECTS)
+* Business Intelligence II (Elective, 7.5 ECTS)
+* Computational Statistics II (Elective, 6 ECTS)
+* Customer Relationship Management Systems (Elective, 7.5 ECTS)
+* Cybersecurity (Elective, 7.5 ECTS)
+* Data Mining II (Elective, 7.5 ECTS)
+* Data Visualization (Elective, 7.5 ECTS)
+* Data-driven decision making (Elective, 4 ECTS)
+* E-Business (Elective, 4 ECTS)
+* Econometrics Methods (Elective, 7.5 ECTS)
+* Emerging Technologies for Innovation (Elective, 3.5 ECTS)
+* Enterprise Cloud Mobility (Elective, 7.5 ECTS)
+* Financial Reporting (Elective, 6 ECTS)
+* Gestão do Conhecimento (Elective, 3.5 ECTS)
+* Industry 4.0 (Elective, 4 ECTS)
+* Information Project Management (Elective, 4 ECTS)
+* Innovation Management and Design Thinking (Elective, 7.5 ECTS)
+* Knowledge Management (Elective, 7.5 ECTS)
+* Leadership and People Management (Elective, 7.5 ECTS)
+* Process Mining Powered By Nokia (Elective, 7.5 ECTS)
+* Sampling Theory and Methods (Elective, 7.5 ECTS)
+* Smart and Sustainable Cities (Elective, 7.5 ECTS)
+Please note that this list only includes the course units for the Spring semester and does not include the course units for the other semesters. For a complete overview of the program, I recommend visiting the official course page.</t>
+  </si>
+  <si>
+    <t>GERAR NOVAMENTE</t>
+  </si>
+  <si>
+    <t>TROCAR PARA O MEDIUM</t>
+  </si>
+  <si>
+    <t>Average Faithfulness score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,13 +1528,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1554,7 +1578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1566,6 +1590,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1868,19 +1896,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="113.109375" customWidth="1"/>
-    <col min="2" max="2" width="78.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1893,8 +1925,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1907,22 +1942,28 @@
       <c r="D2">
         <v>234.2156810760498</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3">
         <v>276.47696661949158</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1935,36 +1976,45 @@
       <c r="D4">
         <v>316.33793067932129</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>326.10568165779108</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E5" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>247.00776791572571</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1977,8 +2027,11 @@
       <c r="D7">
         <v>676.13030505180359</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1991,8 +2044,11 @@
       <c r="D8">
         <v>858.67821168899536</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="6">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2005,621 +2061,739 @@
       <c r="D9">
         <v>430.09221577644348</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="D10">
         <v>762.26887822151184</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="D11">
         <v>354.44882678985601</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
       </c>
       <c r="D12">
         <v>219.75348258018491</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
       </c>
       <c r="D13">
         <v>235.66869592666629</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
       <c r="D14">
         <v>261.47661709785501</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
       <c r="D15">
         <v>219.47661709785501</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
       <c r="D16">
         <v>304.52134251594538</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
       <c r="D17">
         <v>181.91693735122681</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
       <c r="D18">
         <v>252.12889766693121</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
       </c>
       <c r="D19">
         <v>176.30128026008609</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
       <c r="D20">
         <v>141.36673164367679</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
       </c>
       <c r="D21">
         <v>167.99784851074219</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
       </c>
       <c r="D22">
         <v>220.1376941204071</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
       </c>
       <c r="D23">
         <v>165.95457911491391</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
       </c>
       <c r="D24">
         <v>175.13230609893799</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
       </c>
       <c r="D25">
         <v>164.52880072593689</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
       </c>
       <c r="D26">
         <v>340.68654370307922</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="6">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
       </c>
       <c r="D27">
         <v>266.64820885658258</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
       </c>
       <c r="D28">
         <v>210.00087261199951</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
       </c>
       <c r="D29">
         <v>412.91840028762817</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
       </c>
       <c r="D30">
         <v>1363.628142118454</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="E30" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" s="3">
+        <v>256.21787214279999</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="D31">
-        <v>185.7060534954071</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>284.7644829750061</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33">
+        <v>405.5852358341217</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34">
+        <v>474.60538673400902</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>213.60538673400899</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36">
+        <v>359.02475118637079</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37">
+        <v>220.6621239185333</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38">
+        <v>206.78005528450009</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39">
+        <v>357.05228281021118</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40">
+        <v>242.14848017692569</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41">
+        <v>258.50947427749628</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42">
+        <v>278.30897164344788</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43">
+        <v>263.60844230651861</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44">
+        <v>303.60838317871088</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45">
+        <v>294.588801383972</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="3">
+        <v>292.80686187743999</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47">
+        <v>234.45348143577581</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="5">
+        <v>186.14145016670199</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="3">
-        <v>256.21787214279999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33">
-        <v>284.7644829750061</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34">
-        <v>405.5852358341217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35">
-        <v>474.60538673400902</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="49" spans="1:5" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="3">
+        <v>335.71868515015001</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50">
+        <v>392.9086811542511</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51">
+        <v>307.90704655647278</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="5">
+        <v>259.27551078796392</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36">
-        <v>213.60538673400899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37">
-        <v>359.02475118637079</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38">
-        <v>220.6621239185333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39">
-        <v>206.78005528450009</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40">
-        <v>357.05228281021118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41">
-        <v>242.14848017692569</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42">
-        <v>258.50947427749628</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43">
-        <v>278.30897164344788</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44">
-        <v>263.60844230651861</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45">
-        <v>303.60838317871088</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46">
-        <v>294.588801383972</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="3">
-        <v>292.80686187743999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48">
-        <v>234.45348143577581</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49">
-        <v>186.1414501667023</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="3">
-        <v>335.71868515015001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51">
-        <v>392.9086811542511</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52">
-        <v>307.90704655647278</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53">
-        <v>259.27551078796392</v>
       </c>
     </row>
   </sheetData>

--- a/model/src/rag_zero_shot_prompting_easy_Llama3B_results.xlsx
+++ b/model/src/rag_zero_shot_prompting_easy_Llama3B_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB95B52-3272-4F04-9741-DEE5F8D51B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B547A-439A-4487-A2B1-DF1A2EA664AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
   <si>
     <t>question</t>
   </si>
@@ -113,57 +113,12 @@
     <t>What are the course units of the Fall semesters for the postgraduate program in business intelligence?</t>
   </si>
   <si>
-    <t>The course units for the Fall semester of the postgraduate program in Business Intelligence are:
-* Business Intelligence I
-* Data Governance
-* Data Privacy, Security and Ethics
-* Applied Multivariate Data Analysis
-* Brand Management
-* Business Process Management
-* Change Management
-* Data Governance
-* Data Management and Storage
-* Digital Analytics
-* Digital Marketing &amp; E-Commerce
-* Experimental Design
-* Forecasting Methods
-* Information Management Systems
-* Information Systems Development
-* Information Systems Governance
-* Information Technologies Services Management
-* Investments and Portfolio Management
-* Life Insurance
-* Marketing Strategy and Innovation
-* Non-Life Insurance
-* Statistical Analysis
-* Time Series Analysis
-* Transformação Digital
-Please note that the course units for the Fall semester are the same as the ones for the entire first year. If you need more information, please visit the official course page for full details.</t>
-  </si>
-  <si>
     <t>Document 1:
 Postgraduate Program In Business Intelligence postgraduate First Semester 1 st year - Fall Semester Course Units Type Duration ECTS Business Intelligence I Mandatory Semester 7,5 Data Governance Mandatory Quarterly 3,5 Data Mining I Mandatory Semester 7,5 Data Privacy, Security and Ethics Mandatory Quarterly 4 Applied Multivariate Data Analysis Elective Semester 7,5 Brand Management Elective Quarterly 3,5 Business Process Management Elective Semester 7,5 Change Management Elective Quarterly 4 Data Governance Elective Quarterly 3,5 Data Management and Storage Elective Quarterly 4 Data Mining I Elective Semester 7,5 Data Privacy, Security and Ethics Elective Quarterly 4 Digital Analytics Elective Semester 7,5 Digital Marketing &amp; E-Commerce Elective Semester 7,5 Experimental Design Elective Quarterly 4 Forecasting Methods Elective Quarterly 3,5 Information Management Systems Elective Quarterly 3,5 Information Systems Development Elective Quarterly 4 Information Systems Governance Elective Quarterly 3,5 Information Technologies Services Management Elective Quarterly 4 Investments and Portfolio Management Elective Semester 7,5 Life Insurance Elective Quarterly 4 Marketing Strategy and Innovation Elective Semester 7,5 Non-Life Insurance Elective Quarterly 3,5 Statistical Analysis Elective Semester 7,5 Time Series Analysis Elective Quarterly 4 Transformação Digital Elective Semester 7,5Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
 Metadata: {'course_name': 'Postgraduate Program In Business Intelligence', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': 'eac0709a-1b32-48c3-ab1d-92f32624614b', 'source': 'postgraduate-program-in-business-intelligence_Study plan.txt'}
 Document 2:
 Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism postgraduate First Semester 1 st year - Fall Semester Course Units Type Duration ECTS Data Science for Hospitaly and Tourism II Mandatory Semester 7,5 Digital Marketing Mandatory Semester 7,5 Project in Analytics for Hospitality and Tourism Mandatory Semester 7,5 Smart Tourism Mandatory Semester 7,5 Course UnitKeywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
 Metadata: {'course_name': 'Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '3103ae2a-cac2-4423-b15e-b684b8bb7f14', 'source': 'postgraduate-program-in-business-intelligence-and-analytics-for-hospitality-tourism_Study plan.txt'}</t>
-  </si>
-  <si>
-    <t>What are the course units of the Fall semesters for the Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics?</t>
-  </si>
-  <si>
-    <t>The course units for the Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics are as follows:
-**First Semester (Fall Semester) - 1st Year:**
-* Data Mining (Mandatory, 7.5 ECTS)
-* Machine Learning (Mandatory, 7.5 ECTS)
-* Programming for Data Science (Mandatory, 3.5 ECTS)
-* Statistics for Data Science (Mandatory, 7.5 ECTS)
-* Storing and Retrieving Data (Mandatory, 4 ECTS)
-**Second Semester (Fall Semester) - 2nd Year:**
-* Research Methods (Mandatory, 6 ECTS)
-* Dissertation/ Work Project (Mandatory, 54 ECTS)
-* Course Unit (Elective, 3 ECTS)
-Please note that the course units and their respective ECTS may be subject to change. For the most up-to-date information, please visit the official course page.</t>
   </si>
   <si>
     <t>Document 1:
@@ -1114,11 +1069,6 @@
     <t>What are the admission fees for the Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism?</t>
   </si>
   <si>
-    <t>The admission fee for the Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism is €51. This fee is non-refundable in case of withdrawal or non-admission. 
-Please note that the application can only be considered after the payment of the admission fee within the stipulated period. 
-Would you like me to clarify anything?</t>
-  </si>
-  <si>
     <t>Document 1:
 Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism postgraduate Introduction
 The Postgraduate in Business Intelligence and Analytics for Hospitality &amp; Tourism responds to the need for higher in an industry fundamental to the development of the world economy: Tourism. This postgraduate aims to prepare professionals capable of actively participating in developing and applying analytical models for tourism and hospitality , combining the various areas involved with a transversal data science approach to leverage them. The will be held in person, with the option of participating online in real time. With the goal of equipping professionals in the fields of hospitality and tourism, the TIA - Tourism International Academy Project (TIA | PRR) will provide 15 scholarships , worth €2,000 each, for postgraduate students of the edition that will start in February 2025 who: Are residing in Portugal during the course; Successfully complete the following units , which are essential for completing the postgraduate : Data Science for Hospitality and Tourism I; Business Intelligence in Turismo. The applications for this is open until February 16 th , 2025. Partner Entities Confederação do Turismo de Portugal Turismo de Portugal CLEVER NEST Pestana Vila Galé Support https://recuperarportugal.gov.pt/ Format After Working Hours Length and ECTS 2 semesters (60 ECTS) Attendance 2 to 3 times a week Start Date February 2026
@@ -1454,9 +1404,6 @@
   </si>
   <si>
     <t>The admission fee for the Postgraduate Program In Geographic Information Systems And Science is €51.</t>
-  </si>
-  <si>
-    <t>The Master in Information Management, with a specialization in Business Intelligence prepares students for the digital transformation of businesses through its focus on business information systems and analytics, providing the latest academic thinking and technological tools to help make business decisions.</t>
   </si>
   <si>
     <t xml:space="preserve">The Master Degree in Law and Financial Markets is a 4-semester program (120 ECTS) offered by NOVA School of Law, with classes held 2-3 times a week. It is designed for holders of a bachelor's degree (or equivalent) in Law, with a strong emphasis on providing specialized training in areas closely linked to financial markets and investments. The program includes courses on financial markets, risk management, and regulatory frameworks, aiming to equip students with the necessary skills to analyze and evaluate financial instruments, identify strategic interventions in capital markets, and develop a critical approach to solving complex problems. Throughout the program, students can participate in internships, networking events, and international experiences, fostering their professional development and connections within the financial sector. Applications for this program are open until February 28th, 2025.
@@ -1499,13 +1446,55 @@
 Please note that this list only includes the course units for the Spring semester and does not include the course units for the other semesters. For a complete overview of the program, I recommend visiting the official course page.</t>
   </si>
   <si>
-    <t>GERAR NOVAMENTE</t>
-  </si>
-  <si>
-    <t>TROCAR PARA O MEDIUM</t>
-  </si>
-  <si>
     <t>Average Faithfulness score</t>
+  </si>
+  <si>
+    <t>• Business Intelligence I (Mandatory)
+• Data Governance (Mandatory)
+• Data Mining I (Mandatory)
+• Data Privacy, Security and Ethics (Mandatory)
+Additionally, the following elective courses are available in the first semester:
+• Applied Multivariate Data Analysis 
+• Brand Management 
+• Business Process Management 
+• Change Management 
+• Data Governance 
+• Data Management and Storage 
+• Digital Analytics 
+• Digital Marketing &amp; E-Commerce 
+• Experimental Design 
+• Forecasting Methods 
+• Information Management Systems 
+• Information Systems Development 
+• Information Systems Governance 
+• Investments and Portfolio Management 
+• Life Insurance 
+• Marketing Strategy and Innovation 
+• Non-Life Insurance 
+• Statistical Analysis 
+• Time Series Analysis 
+• Transformação Digital
+Please note that the course units for the Fall semester are the same as the ones for the entire first year. If you need more information, please visit the official course page for full details.</t>
+  </si>
+  <si>
+    <t>The mandatory course units for the first semester of the Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics are:
+• Data Mining (Mandatory)
+• Machine Learning (Mandatory)
+• Programming for Data Science (Mandatory)
+• Statistics for Data Science (Mandatory)
+• Storing and Retrieving Data (Mandatory)
+For the second semester of the same program, the course units are:
+• Research Methods (Mandatory) 
+• Dissertation/Work Project (Mandatory)</t>
+  </si>
+  <si>
+    <t>What are the mandatory course units of the Fall semesters for the Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics?</t>
+  </si>
+  <si>
+    <t>The Master in Information Management, with a specialization in Business Intelligence, prepares students for the digital transformation of businesses through courses such as Transformação Digital, which covers the necessary concepts and techniques for implementing digital transformations, as well as other electives like Digital Analytics, Data Mining, and Information Systems Development, which provide students with the skills and knowledge needed to analyze and interpret complex data, identify opportunities for improvement, and develop strategies for digital transformation.</t>
+  </si>
+  <si>
+    <t>The application fee is €51. The pre-registration fee is around €1,250 for EU and Portuguese-speaking countries and €2,500 for other countries. The enrollment fee is €35, and the annual school insurance is €1.40. The tuition fee is €4,100.</t>
   </si>
 </sst>
 </file>
@@ -1537,18 +1526,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1578,7 +1561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1590,10 +1573,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1898,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1925,8 +1907,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>156</v>
+      <c r="E1" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1942,7 +1924,7 @@
       <c r="D2">
         <v>234.2156810760498</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.9</v>
       </c>
     </row>
@@ -1959,7 +1941,7 @@
       <c r="D3">
         <v>276.47696661949158</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1976,824 +1958,824 @@
       <c r="D4">
         <v>316.33793067932129</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="3">
+        <v>326.10568165779108</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5">
-        <v>326.10568165779108</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>247.00776791572571</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>154</v>
+      <c r="E6" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>676.13030505180359</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>858.67821168899536</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>430.09221577644348</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>762.26887822151184</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>354.44882678985601</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>219.75348258018491</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>235.66869592666629</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>261.47661709785501</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>219.47661709785501</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>304.52134251594538</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>181.91693735122681</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>252.12889766693121</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>176.30128026008609</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>141.36673164367679</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>167.99784851074219</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>220.1376941204071</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>165.95457911491391</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24">
         <v>175.13230609893799</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D25">
         <v>164.52880072593689</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D26">
         <v>340.68654370307922</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>266.64820885658258</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>210.00087261199951</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <v>412.91840028762817</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30">
         <v>1363.628142118454</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="3" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D31" s="3">
         <v>256.21787214279999</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>284.7644829750061</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D33">
         <v>405.5852358341217</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D34">
         <v>474.60538673400902</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D35">
         <v>213.60538673400899</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D36">
         <v>359.02475118637079</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D37">
         <v>220.6621239185333</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D38">
         <v>206.78005528450009</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D39">
         <v>357.05228281021118</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D40">
         <v>242.14848017692569</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D41">
         <v>258.50947427749628</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D42">
         <v>278.30897164344788</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D43">
         <v>263.60844230651861</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D44">
         <v>303.60838317871088</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D45">
         <v>294.588801383972</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D46" s="3">
         <v>292.80686187743999</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D47">
         <v>234.45348143577581</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="A48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="3">
         <v>186.14145016670199</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>155</v>
+      <c r="E48" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D49" s="3">
         <v>335.71868515015001</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D50">
         <v>392.9086811542511</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D51">
         <v>307.90704655647278</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="A52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="3">
         <v>259.27551078796392</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>154</v>
+      <c r="E52" s="3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/model/src/rag_zero_shot_prompting_easy_Llama3B_results.xlsx
+++ b/model/src/rag_zero_shot_prompting_easy_Llama3B_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B547A-439A-4487-A2B1-DF1A2EA664AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF3504A-176A-48D4-9E97-CE6973924A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1878,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2398,7 +2398,7 @@
         <v>85</v>
       </c>
       <c r="D30">
-        <v>1363.628142118454</v>
+        <v>412.91840028762817</v>
       </c>
       <c r="E30" s="5">
         <v>0.95</v>
@@ -2776,6 +2776,12 @@
       </c>
       <c r="E52" s="3">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <f>AVERAGE(D2:D52)</f>
+        <v>302.73683469903256</v>
       </c>
     </row>
   </sheetData>
